--- a/data/trans_dic/Q20C_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Q20C_R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -729,7 +730,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,69</t>
+          <t>0,0; 54,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -749,17 +750,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,18</t>
+          <t>0,0; 55,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,22; 83,3</t>
+          <t>15,42; 83,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 75,63</t>
+          <t>0,0; 76,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,24 +770,24 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,55; 44,56</t>
+          <t>6,59; 45,73</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,2; 58,4</t>
+          <t>0,0; 56,63</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 84,56</t>
+          <t>0,0; 79,52</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -869,27 +870,27 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,93</t>
+          <t>0,0; 56,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,55</t>
+          <t>0,0; 83,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 50,21</t>
+          <t>1,2; 51,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,8; 69,37</t>
+          <t>10,57; 67,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,9; 47,75</t>
+          <t>6,11; 52,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,34 +900,34 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,2</t>
+          <t>0,0; 57,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,86; 51,3</t>
+          <t>6,8; 45,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,72; 41,3</t>
+          <t>7,8; 40,52</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,37</t>
+          <t>0,0; 46,85</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,49; 40,74</t>
+          <t>4,31; 43,33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1019,7 +1020,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 59,58</t>
+          <t>0,0; 55,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1035,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,97; 84,16</t>
+          <t>0,0; 84,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,2</t>
+          <t>0,0; 54,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1055,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,42; 68,95</t>
+          <t>10,25; 66,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,09; 45,03</t>
+          <t>6,36; 44,93</t>
         </is>
       </c>
     </row>
@@ -1149,57 +1150,57 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 77,22</t>
+          <t>0,0; 77,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,61</t>
+          <t>0,0; 48,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,8; 79,13</t>
+          <t>11,29; 75,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,37</t>
+          <t>0,0; 55,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 71,96</t>
+          <t>0,0; 71,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,26; 61,99</t>
+          <t>8,13; 65,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,23</t>
+          <t>4,65; 53,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,37</t>
+          <t>0,0; 55,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,9; 55,89</t>
+          <t>6,88; 55,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,97; 46,46</t>
+          <t>5,22; 44,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,08; 59,0</t>
+          <t>15,71; 60,87</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1290,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,42</t>
+          <t>0,0; 58,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,7 +1300,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 88,2</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1329,24 +1330,24 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,44</t>
+          <t>0,0; 36,36</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13,99; 85,46</t>
+          <t>14,08; 73,45</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 74,07</t>
+          <t>0,0; 75,05</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1439,7 +1440,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,52; 78,97</t>
+          <t>25,26; 78,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,39 +1455,39 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,1</t>
+          <t>0,0; 56,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,17</t>
+          <t>0,0; 59,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,14</t>
+          <t>0,0; 51,34</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,23</t>
+          <t>0,0; 62,17</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,78</t>
+          <t>0,0; 42,83</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>17,52; 65,21</t>
+          <t>16,61; 63,58</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>26,71; 80,21</t>
+          <t>30,25; 84,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,79</t>
+          <t>0,0; 61,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,27; 88,17</t>
+          <t>12,54; 86,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,79</t>
+          <t>0,0; 57,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,72</t>
+          <t>0,0; 36,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,99; 75,53</t>
+          <t>20,86; 71,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,89; 59,23</t>
+          <t>7,05; 60,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,32; 46,78</t>
+          <t>10,06; 45,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,05; 51,98</t>
+          <t>16,09; 50,47</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>18,35; 57,64</t>
+          <t>17,38; 57,92</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15,42; 63,52</t>
+          <t>15,69; 62,18</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>10,4; 39,04</t>
+          <t>10,47; 39,2</t>
         </is>
       </c>
     </row>
@@ -1704,37 +1705,37 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,93</t>
+          <t>0,0; 67,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 81,83</t>
+          <t>0,0; 82,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,12</t>
+          <t>0,0; 51,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,63</t>
+          <t>0,0; 43,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,15; 71,75</t>
+          <t>9,2; 69,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>15,53; 69,81</t>
+          <t>14,98; 71,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 70,89</t>
+          <t>0,0; 71,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,22 +1745,22 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,21; 53,81</t>
+          <t>7,03; 54,47</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>18,87; 62,95</t>
+          <t>19,76; 64,16</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5,46; 44,12</t>
+          <t>5,55; 43,45</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,32</t>
+          <t>0,0; 33,17</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>13,49; 44,76</t>
+          <t>14,05; 43,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,52; 32,28</t>
+          <t>9,37; 30,79</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,01; 35,68</t>
+          <t>11,87; 38,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16,44; 38,93</t>
+          <t>17,12; 40,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,32; 30,56</t>
+          <t>8,14; 30,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>17,42; 37,67</t>
+          <t>17,96; 37,77</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>16,25; 39,03</t>
+          <t>16,52; 39,48</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>11,26; 28,34</t>
+          <t>11,24; 29,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>13,24; 31,22</t>
+          <t>13,61; 30,44</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>16,95; 31,65</t>
+          <t>17,01; 32,48</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>17,23; 33,82</t>
+          <t>16,72; 33,58</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>16,4; 31,22</t>
+          <t>15,63; 30,9</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con mayor tiempo de espera (más de 7 meses) para ser hopitalizado</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2320</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1387</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2738</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4344</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2738</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1877</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1215</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6240</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1647</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2472</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5235</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>867; 4683</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2061</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1215</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1385; 9608</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5758</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4098</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2107</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2248</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2392</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3077</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3119</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>917</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3077</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2248</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3309</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1557</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5783</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5527</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>167; 7212</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>952; 6081</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>899; 7747</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2020</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3521</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>958; 6395</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1944; 10094</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6695</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>862; 8667</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1608</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2970</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2970</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>2594</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 732</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1569</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1041</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4406</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1124</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1711</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5982</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3004</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1298</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1798</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>910; 5940</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>853; 6019</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>861</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3830</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2114</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3126</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1488</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2976</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>4083</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>5318</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3699</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4037</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>978; 6573</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3610</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5387</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>904; 7317</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>297; 3451</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3610</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>847; 6870</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1016; 8619</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2365; 9166</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1935</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>981</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2916</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>929</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1198</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4128</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3883</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2283</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 771</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1786</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1956</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1130</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1340</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4687</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>948; 4943</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2561</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>976</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3325</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1057</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>976</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>2093</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2802</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3873</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1425</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1571; 4893</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1573</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3195</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4501</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1953</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4913</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5792</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5421</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>1578; 6043</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>6985</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2053</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>4130</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1095</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>7219</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2958</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>3717</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>8951</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>9272</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>4812</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3803; 10664</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5885</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1113; 7712</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4523</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5844</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3142; 10735</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>774; 6654</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1467; 6569</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>4634; 14536</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>4276; 14246</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>3116; 12347</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2351; 8805</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1871</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>2775</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>6428</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>2244</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>3684</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>8457</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>4115</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 3805</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5224</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5950</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>0; 3205</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>768; 5822</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>2289; 10887</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5660</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1005</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>985; 7628</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>4278; 13890</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1081; 8465</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>0; 3888</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>8870</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>11456</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>11143</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>14839</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>8690</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>21962</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>16019</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>8289</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>17560</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>33418</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>27161</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>23127</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>4680; 14587</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>5604; 18409</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>6087; 19857</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>9714; 22730</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>3990; 14723</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>14580; 30653</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>9952; 23784</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>4944; 12785</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>11208; 25061</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>23978; 45776</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>18642; 37453</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>15738; 31122</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>